--- a/Chain_Encoder/M5Stack-Unit-Chain-Encoder-通讯协议-V1.0-20240704.xlsx
+++ b/Chain_Encoder/M5Stack-Unit-Chain-Encoder-通讯协议-V1.0-20240704.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="94">
   <si>
     <t>M5Stack Unit-Chain-Encoder Protocol</t>
   </si>
@@ -139,33 +139,13 @@
    注2：读取后将会清0</t>
   </si>
   <si>
-    <t>获取按钮状态</t>
-  </si>
-  <si>
-    <t>0x12</t>
+    <t>复位编码器值</t>
+  </si>
+  <si>
+    <t>0x13</t>
   </si>
   <si>
     <t>0x04</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> （1）功能说明：获取按钮状态。
- （2）输入参数： Index_id（设备下标ID）
- （3）返回参数： Button
- （4）指令代码： 0x12
-   注1：Button按键状态
-            取值范围：0/1
-            0：按键按下
-            1：按键未按下
-  </t>
-  </si>
-  <si>
-    <t>复位编码器值</t>
-  </si>
-  <si>
-    <t>0x13</t>
   </si>
   <si>
     <t>operation_status</t>
@@ -301,6 +281,21 @@
  （4）指令代码： 0x23</t>
   </si>
   <si>
+    <t>按键按压</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> （1）功能说明：chain设备按下、主动发送
+ （2）输入参数： none
+ （3）返回参数： 0x11
+ （4）指令代码： 0x40</t>
+  </si>
+  <si>
     <t>查询升级程序版本号</t>
   </si>
   <si>
@@ -354,9 +349,6 @@
   </si>
   <si>
     <t>枚举请求</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>0xFF</t>
@@ -1679,11 +1671,11 @@
   </sheetPr>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.65" customWidth="1"/>
     <col min="2" max="2" width="4.425" customWidth="1"/>
@@ -1691,8 +1683,8 @@
     <col min="4" max="4" width="3.70833333333333" customWidth="1"/>
     <col min="5" max="5" width="2.85" customWidth="1"/>
     <col min="6" max="6" width="3.08333333333333" customWidth="1"/>
-    <col min="7" max="7" width="6.11666666666667" customWidth="1"/>
-    <col min="8" max="8" width="7.30833333333333" customWidth="1"/>
+    <col min="7" max="7" width="3.46666666666667" customWidth="1"/>
+    <col min="8" max="8" width="3.40833333333333" customWidth="1"/>
     <col min="9" max="9" width="3.46666666666667" customWidth="1"/>
     <col min="10" max="13" width="4.26666666666667" customWidth="1"/>
   </cols>
@@ -1973,8 +1965,8 @@
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" ht="19" customHeight="1" spans="1:13">
-      <c r="A11" s="14" t="s">
+    <row r="11" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A11" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2006,8 +1998,8 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="9"/>
+    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A12" s="24"/>
       <c r="B12" s="20" t="s">
         <v>23</v>
       </c>
@@ -2037,8 +2029,8 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
     </row>
-    <row r="13" ht="52" customHeight="1" spans="1:13">
-      <c r="A13" s="9"/>
+    <row r="13" customFormat="1" ht="48" customHeight="1" spans="1:13">
+      <c r="A13" s="25"/>
       <c r="B13" s="15" t="s">
         <v>27</v>
       </c>
@@ -2089,7 +2081,7 @@
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
     </row>
-    <row r="15" customFormat="1" ht="18" customHeight="1" spans="1:13">
+    <row r="15" customFormat="1" ht="15" customHeight="1" spans="1:13">
       <c r="A15" s="24"/>
       <c r="B15" s="20" t="s">
         <v>23</v>
@@ -2107,7 +2099,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H15" s="18" t="s">
         <v>21</v>
@@ -2120,13 +2112,13 @@
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
     </row>
-    <row r="16" customFormat="1" ht="48" customHeight="1" spans="1:13">
+    <row r="16" customFormat="1" ht="44" customHeight="1" spans="1:13">
       <c r="A16" s="25"/>
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -2139,15 +2131,15 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
     </row>
-    <row r="17" customFormat="1" ht="17" customHeight="1" spans="1:13">
+    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A17" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>18</v>
@@ -2156,13 +2148,13 @@
         <v>19</v>
       </c>
       <c r="F17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>22</v>
@@ -2172,7 +2164,7 @@
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
     </row>
-    <row r="18" customFormat="1" ht="15" customHeight="1" spans="1:13">
+    <row r="18" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A18" s="24"/>
       <c r="B18" s="20" t="s">
         <v>23</v>
@@ -2187,10 +2179,10 @@
         <v>19</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>21</v>
@@ -2203,7 +2195,7 @@
       <c r="L18" s="19"/>
       <c r="M18" s="19"/>
     </row>
-    <row r="19" customFormat="1" ht="44" customHeight="1" spans="1:13">
+    <row r="19" customFormat="1" ht="65" customHeight="1" spans="1:13">
       <c r="A19" s="25"/>
       <c r="B19" s="15" t="s">
         <v>27</v>
@@ -2230,7 +2222,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>18</v>
@@ -2242,10 +2234,10 @@
         <v>45</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="18" t="s">
         <v>21</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>22</v>
@@ -2273,7 +2265,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>21</v>
@@ -2286,13 +2278,13 @@
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
     </row>
-    <row r="22" customFormat="1" ht="65" customHeight="1" spans="1:13">
+    <row r="22" customFormat="1" ht="53" customHeight="1" spans="1:13">
       <c r="A22" s="25"/>
       <c r="B22" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
@@ -2305,15 +2297,15 @@
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
     </row>
-    <row r="23" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="23" customFormat="1" ht="16" customHeight="1" spans="1:13">
       <c r="A23" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>18</v>
@@ -2325,20 +2317,22 @@
         <v>49</v>
       </c>
       <c r="G23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
       <c r="M23" s="19"/>
     </row>
-    <row r="24" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:13">
       <c r="A24" s="24"/>
       <c r="B24" s="20" t="s">
         <v>23</v>
@@ -2356,7 +2350,7 @@
         <v>49</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>21</v>
@@ -2369,13 +2363,13 @@
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
     </row>
-    <row r="25" customFormat="1" ht="53" customHeight="1" spans="1:13">
+    <row r="25" customFormat="1" ht="44" customHeight="1" spans="1:13">
       <c r="A25" s="25"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -2388,15 +2382,15 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="26" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A26" s="23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>18</v>
@@ -2405,31 +2399,29 @@
         <v>19</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="35" t="s">
         <v>21</v>
       </c>
+      <c r="H26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
     </row>
-    <row r="27" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:13">
       <c r="A27" s="24"/>
       <c r="B27" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>18</v>
@@ -2438,29 +2430,31 @@
         <v>19</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
     </row>
-    <row r="28" customFormat="1" ht="48" customHeight="1" spans="1:13">
+    <row r="28" customFormat="1" ht="31" customHeight="1" spans="1:13">
       <c r="A28" s="25"/>
       <c r="B28" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -2473,15 +2467,15 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
     </row>
-    <row r="29" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="29" customFormat="1" ht="19" customHeight="1" spans="1:13">
       <c r="A29" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>18</v>
@@ -2490,13 +2484,13 @@
         <v>19</v>
       </c>
       <c r="F29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="H29" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>22</v>
@@ -2506,13 +2500,13 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
     </row>
-    <row r="30" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="30" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A30" s="24"/>
       <c r="B30" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>18</v>
@@ -2521,25 +2515,23 @@
         <v>19</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="35" t="s">
         <v>21</v>
       </c>
+      <c r="I30" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
     </row>
-    <row r="31" customFormat="1" ht="31" customHeight="1" spans="1:13">
+    <row r="31" customFormat="1" ht="56" customHeight="1" spans="1:13">
       <c r="A31" s="25"/>
       <c r="B31" s="15" t="s">
         <v>27</v>
@@ -2558,7 +2550,7 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="32" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A32" s="23" t="s">
         <v>61</v>
       </c>
@@ -2566,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>18</v>
@@ -2578,10 +2570,10 @@
         <v>62</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="18" t="s">
         <v>21</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>22</v>
@@ -2591,7 +2583,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A33" s="24"/>
       <c r="B33" s="20" t="s">
         <v>23</v>
@@ -2609,7 +2601,7 @@
         <v>62</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>21</v>
@@ -2622,13 +2614,13 @@
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
     </row>
-    <row r="34" customFormat="1" ht="57" customHeight="1" spans="1:13">
+    <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A34" s="25"/>
       <c r="B34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -2641,40 +2633,40 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
     </row>
-    <row r="35" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A35" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="18" t="s">
+      <c r="F35" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-    </row>
-    <row r="36" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:13">
       <c r="A36" s="24"/>
       <c r="B36" s="20" t="s">
         <v>23</v>
@@ -2692,7 +2684,7 @@
         <v>66</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>21</v>
@@ -2705,7 +2697,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
     </row>
-    <row r="37" customFormat="1" ht="31" customHeight="1" spans="1:13">
+    <row r="37" customFormat="1" ht="29" customHeight="1" spans="1:13">
       <c r="A37" s="25"/>
       <c r="B37" s="15" t="s">
         <v>27</v>
@@ -2724,7 +2716,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
     </row>
-    <row r="38" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:13">
       <c r="A38" s="23" t="s">
         <v>68</v>
       </c>
@@ -2784,7 +2776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="39" customHeight="1" spans="1:13">
+    <row r="40" customFormat="1" ht="38" customHeight="1" spans="1:13">
       <c r="A40" s="25"/>
       <c r="B40" s="15" t="s">
         <v>27</v>
@@ -2803,7 +2795,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
     </row>
-    <row r="41" customFormat="1" ht="21" customHeight="1" spans="1:13">
+    <row r="41" customFormat="1" ht="22" customHeight="1" spans="1:13">
       <c r="A41" s="23" t="s">
         <v>73</v>
       </c>
@@ -2971,7 +2963,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
@@ -2996,10 +2988,10 @@
         <v>18</v>
       </c>
       <c r="E48" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>85</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>21</v>
@@ -3019,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -3034,7 +3026,7 @@
     </row>
     <row r="50" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A50" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>16</v>
@@ -3046,10 +3038,10 @@
         <v>18</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" s="18" t="s">
         <v>21</v>
@@ -3073,10 +3065,10 @@
         <v>18</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" s="18" t="s">
         <v>21</v>
@@ -3096,7 +3088,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -3111,7 +3103,7 @@
     </row>
     <row r="53" customFormat="1" ht="21" customHeight="1" spans="1:13">
       <c r="A53" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>16</v>
@@ -3123,13 +3115,13 @@
         <v>18</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>21</v>
@@ -3152,13 +3144,13 @@
         <v>18</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>21</v>
@@ -3177,7 +3169,7 @@
         <v>27</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -3197,7 +3189,7 @@
     <row r="85" ht="5" customHeight="1"/>
     <row r="86" hidden="1"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="C10:M10"/>
     <mergeCell ref="C13:M13"/>
@@ -3208,6 +3200,7 @@
     <mergeCell ref="C28:M28"/>
     <mergeCell ref="C31:M31"/>
     <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C35:M35"/>
     <mergeCell ref="C37:M37"/>
     <mergeCell ref="C40:M40"/>
     <mergeCell ref="C43:M43"/>
@@ -3239,7 +3232,7 @@
     <mergeCell ref="I1:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="135" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="150" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>